--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782A0EE-6296-453B-AFD8-AA9BFC2A2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED34D43-845D-4EA3-B95D-596FD82A33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,9 +597,6 @@
     <t>Groba Arriondo, Oscar</t>
   </si>
   <si>
-    <t>Goñi, Rodrigo</t>
-  </si>
-  <si>
     <t>Goñi Romero, Rodrigo</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>Schipani, Felipe</t>
   </si>
   <si>
-    <t>Rosello, Ma.Eugenia</t>
-  </si>
-  <si>
     <t>Batllistas</t>
   </si>
   <si>
@@ -1005,9 +999,6 @@
     <t>Batllistas Unidos</t>
   </si>
   <si>
-    <t>Sanguinetti, Julio Ma.</t>
-  </si>
-  <si>
     <t>Talvi</t>
   </si>
   <si>
@@ -1321,6 +1312,15 @@
   </si>
   <si>
     <t>Bottino, Maria Cecilia</t>
+  </si>
+  <si>
+    <t>Sanguinetti, Julio Maria</t>
+  </si>
+  <si>
+    <t>Rosello, Maria Eugenia</t>
+  </si>
+  <si>
+    <t>Goni Romero, Rodrigo</t>
   </si>
 </sst>
 </file>
@@ -1675,61 +1675,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A242FD-E632-47C8-AC1F-2E59AC859409}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="29.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1753,12 +1754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1782,12 +1783,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1811,12 +1812,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1840,12 +1841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1869,12 +1870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1898,12 +1899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1927,12 +1928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -1956,12 +1957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1985,12 +1986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -2014,12 +2015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2043,12 +2044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2072,12 +2073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -2101,12 +2102,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2130,12 +2131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -2159,12 +2160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -2188,12 +2189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -2217,12 +2218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -2246,12 +2247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -2275,12 +2276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>71</v>
@@ -2304,12 +2305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -2333,12 +2334,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
@@ -2362,12 +2363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2391,12 +2392,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2420,12 +2421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -2449,12 +2450,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -2478,12 +2479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -2504,15 +2505,15 @@
         <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -2536,12 +2537,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -2562,12 +2563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -2591,12 +2592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
@@ -2620,12 +2621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -2649,12 +2650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -2678,12 +2679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -2707,12 +2708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2736,12 +2737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2765,12 +2766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>22</v>
@@ -2794,12 +2795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -2823,12 +2824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -2846,12 +2847,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2875,12 +2876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2904,12 +2905,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2933,12 +2934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2962,12 +2963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2988,15 +2989,15 @@
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>48</v>
@@ -3020,12 +3021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -3049,12 +3050,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3078,12 +3079,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -3107,12 +3108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -3136,12 +3137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3165,12 +3166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -3194,12 +3195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -3223,12 +3224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -3252,12 +3253,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -3281,12 +3282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
@@ -3310,12 +3311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
@@ -3339,12 +3340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
@@ -3368,12 +3369,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -3394,12 +3395,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
@@ -3423,12 +3424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -3452,12 +3453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -3481,12 +3482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -3510,12 +3511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>36</v>
@@ -3539,12 +3540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -3568,12 +3569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>47</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -3597,12 +3598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -3626,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>47</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>47</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>47</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>47</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>47</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>47</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>47</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>47</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>47</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>47</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>47</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>47</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>47</v>
       </c>
@@ -4023,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>47</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>47</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>47</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>47</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>47</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>47</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>47</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>47</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>47</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>47</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>47</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>47</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>47</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>47</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>47</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>47</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>47</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>47</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>47</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>47</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>47</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>47</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>47</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>47</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>47</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>47</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>47</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>47</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>47</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>47</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>47</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>47</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>47</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>47</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>47</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>47</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>47</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>47</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>47</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>47</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>47</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>47</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>47</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>47</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>47</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>47</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>47</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>47</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>47</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>47</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>47</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>47</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>47</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>47</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>47</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>47</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>47</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>47</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>47</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>47</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>47</v>
       </c>
@@ -5945,12 +5946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>47</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -5971,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="K149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>47</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>47</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>47</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>47</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>47</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>47</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>47</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>47</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>47</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>47</v>
       </c>
@@ -6293,12 +6294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>48</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -6319,12 +6320,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>48</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D162" s="1">
         <v>2</v>
@@ -6345,12 +6346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>48</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -6371,12 +6372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>48</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D164" s="1">
         <v>2</v>
@@ -6400,12 +6401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>48</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -6426,12 +6427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -6452,12 +6453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -6478,12 +6479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>48</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6507,12 +6508,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>48</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -6533,12 +6534,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>48</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -6559,12 +6560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -6585,12 +6586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>48</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -6599,7 +6600,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G172" s="1">
         <v>2014</v>
@@ -6611,12 +6612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>48</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -6637,12 +6638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>48</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -6663,12 +6664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>48</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -6689,12 +6690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>48</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -6715,12 +6716,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>48</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -6738,15 +6739,15 @@
         <v>1</v>
       </c>
       <c r="K177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>48</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -6767,12 +6768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>48</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -6793,12 +6794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>48</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -6819,12 +6820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>48</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -6845,12 +6846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>48</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -6871,12 +6872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>48</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -6897,12 +6898,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>48</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -6923,12 +6924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>48</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -6952,12 +6953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>48</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>13</v>
@@ -6981,12 +6982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>48</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -6995,7 +6996,7 @@
         <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" s="1">
         <v>2014</v>
@@ -7007,12 +7008,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>48</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -7021,7 +7022,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G188" s="1">
         <v>2014</v>
@@ -7033,15 +7034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>48</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -7062,12 +7063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>48</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -7088,12 +7089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>48</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -7114,12 +7115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>48</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7143,12 +7144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>48</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -7169,12 +7170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>48</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -7195,12 +7196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>48</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -7221,12 +7222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>48</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -7247,12 +7248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>48</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -7273,12 +7274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>48</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -7287,7 +7288,7 @@
         <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G198" s="1">
         <v>2014</v>
@@ -7299,12 +7300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>48</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -7325,12 +7326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>48</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -7351,12 +7352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>48</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
@@ -7377,12 +7378,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>48</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -7391,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G202" s="1">
         <v>2014</v>
@@ -7403,12 +7404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -7417,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G203" s="1">
         <v>2014</v>
@@ -7429,12 +7430,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>48</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -7455,12 +7456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>48</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7484,12 +7485,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>48</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -7510,12 +7511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>48</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>32</v>
@@ -7539,12 +7540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>48</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -7553,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G208" s="1">
         <v>2014</v>
@@ -7565,12 +7566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>48</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -7591,12 +7592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>48</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -7617,12 +7618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>48</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -7643,12 +7644,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>48</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -7669,12 +7670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>48</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -7695,12 +7696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>48</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -7721,12 +7722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>48</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -7747,22 +7748,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D216" s="1">
-        <v>1</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G216" s="1">
         <v>2014</v>
       </c>
@@ -7773,12 +7774,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>48</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -7799,12 +7800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>48</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -7825,12 +7826,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>48</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>186</v>
+        <v>427</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -7851,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>48</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>48</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>48</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>48</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>48</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>48</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>48</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>48</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>48</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>48</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>48</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>48</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>48</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>48</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>48</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>48</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>48</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>48</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>48</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>48</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>48</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>48</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>48</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>48</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>48</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>48</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>48</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>48</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>48</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>48</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>48</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>48</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>48</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>48</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>48</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>48</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>48</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>48</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>48</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>48</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>48</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>48</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>48</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>48</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>48</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>48</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>48</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>48</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>48</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>48</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>48</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -9402,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>48</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>48</v>
       </c>
@@ -9518,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>48</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>48</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>48</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>48</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>48</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>48</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>48</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>48</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>48</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>48</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>48</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>48</v>
       </c>
@@ -9886,12 +9887,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>49</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -9900,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G294" s="1">
         <v>2019</v>
@@ -9909,18 +9910,18 @@
         <v>1</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K294" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>49</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>12</v>
@@ -9932,7 +9933,7 @@
         <v>3</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G295" s="1">
         <v>2019</v>
@@ -9947,12 +9948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>49</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>56</v>
@@ -9961,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G296" s="1">
         <v>2019</v>
@@ -9976,12 +9977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>49</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>12</v>
@@ -9993,7 +9994,7 @@
         <v>19</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G297" s="1">
         <v>2019</v>
@@ -10008,12 +10009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>49</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>9</v>
@@ -10025,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G298" s="1">
         <v>2019</v>
@@ -10040,12 +10041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>49</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D299" s="1">
         <v>2</v>
@@ -10054,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G299" s="1">
         <v>2019</v>
@@ -10063,18 +10064,18 @@
         <v>1</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K299" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>49</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>12</v>
@@ -10086,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G300" s="1">
         <v>2019</v>
@@ -10101,12 +10102,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>49</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>38</v>
@@ -10133,12 +10134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>49</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D302" s="1">
         <v>2</v>
@@ -10147,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G302" s="1">
         <v>2019</v>
@@ -10156,18 +10157,18 @@
         <v>1</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K302" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>49</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -10176,7 +10177,7 @@
         <v>3</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G303" s="1">
         <v>2019</v>
@@ -10185,18 +10186,18 @@
         <v>1</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K303" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>49</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>0</v>
@@ -10208,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G304" s="1">
         <v>2019</v>
@@ -10223,12 +10224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>49</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -10240,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G305" s="1">
         <v>2019</v>
@@ -10255,12 +10256,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>49</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -10275,18 +10276,18 @@
         <v>1</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K306" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>49</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>24</v>
@@ -10298,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G307" s="1">
         <v>2019</v>
@@ -10313,12 +10314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>49</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -10327,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G308" s="1">
         <v>2019</v>
@@ -10336,18 +10337,18 @@
         <v>1</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K308" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>49</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>38</v>
@@ -10359,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G309" s="1">
         <v>2019</v>
@@ -10374,12 +10375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>49</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -10397,18 +10398,18 @@
         <v>1</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K310" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>49</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D311" s="1">
         <v>2</v>
@@ -10417,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G311" s="1">
         <v>2019</v>
@@ -10426,18 +10427,18 @@
         <v>1</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K311" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>49</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>29</v>
@@ -10464,12 +10465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>49</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>50</v>
@@ -10478,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G313" s="1">
         <v>2019</v>
@@ -10493,12 +10494,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>49</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -10525,12 +10526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>49</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -10557,12 +10558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>49</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>38</v>
@@ -10571,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G316" s="1">
         <v>2019</v>
@@ -10586,12 +10587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>49</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>9</v>
@@ -10600,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G317" s="1">
         <v>2019</v>
@@ -10615,12 +10616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>49</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D318" s="1">
         <v>2</v>
@@ -10629,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G318" s="1">
         <v>2019</v>
@@ -10638,18 +10639,18 @@
         <v>1</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K318" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>49</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -10658,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G319" s="1">
         <v>2019</v>
@@ -10673,12 +10674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>49</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -10705,12 +10706,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>49</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>38</v>
@@ -10722,7 +10723,7 @@
         <v>19</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G321" s="1">
         <v>2019</v>
@@ -10737,12 +10738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>49</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D322" s="1">
         <v>2</v>
@@ -10760,18 +10761,18 @@
         <v>1</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K322" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>49</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>71</v>
@@ -10783,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G323" s="1">
         <v>2019</v>
@@ -10798,24 +10799,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>49</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="1">
+        <v>1</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D324" s="1">
-        <v>1</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G324" s="1">
         <v>2019</v>
@@ -10830,12 +10831,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>49</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>69</v>
@@ -10847,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G325" s="1">
         <v>2019</v>
@@ -10862,12 +10863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>49</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D326" s="1">
         <v>2</v>
@@ -10876,7 +10877,7 @@
         <v>3</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G326" s="1">
         <v>2019</v>
@@ -10885,18 +10886,18 @@
         <v>1</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K326" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>49</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -10905,7 +10906,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G327" s="1">
         <v>2019</v>
@@ -10914,18 +10915,18 @@
         <v>1</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K327" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>49</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -10937,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G328" s="1">
         <v>2019</v>
@@ -10952,12 +10953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>49</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>22</v>
@@ -10969,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G329" s="1">
         <v>2019</v>
@@ -10984,12 +10985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>49</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -11001,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G330" s="1">
         <v>2019</v>
@@ -11016,12 +11017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>49</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -11036,18 +11037,18 @@
         <v>1</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K331" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>49</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -11074,18 +11075,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>49</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G333" s="1">
         <v>2019</v>
@@ -11094,18 +11095,18 @@
         <v>1</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K333" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>49</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>48</v>
@@ -11117,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G334" s="1">
         <v>2019</v>
@@ -11132,12 +11133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>49</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>38</v>
@@ -11149,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G335" s="1">
         <v>2019</v>
@@ -11164,12 +11165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>49</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>22</v>
@@ -11178,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G336" s="1">
         <v>2019</v>
@@ -11193,12 +11194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>49</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>32</v>
@@ -11210,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G337" s="1">
         <v>2019</v>
@@ -11225,12 +11226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>49</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>56</v>
@@ -11242,7 +11243,7 @@
         <v>19</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G338" s="1">
         <v>2019</v>
@@ -11257,12 +11258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>49</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>12</v>
@@ -11289,12 +11290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>49</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>56</v>
@@ -11306,7 +11307,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G340" s="1">
         <v>2019</v>
@@ -11321,12 +11322,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>49</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>22</v>
@@ -11353,12 +11354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>49</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>50</v>
@@ -11385,12 +11386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>49</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -11417,12 +11418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>49</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -11431,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G344" s="1">
         <v>2019</v>
@@ -11440,18 +11441,18 @@
         <v>1</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K344" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>49</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>36</v>
@@ -11463,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G345" s="1">
         <v>2019</v>
@@ -11478,24 +11479,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>49</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" s="1">
+        <v>1</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F346" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="1">
-        <v>1</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G346" s="1">
         <v>2019</v>
@@ -11510,12 +11511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>49</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -11527,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G347" s="1">
         <v>2019</v>
@@ -11542,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>49</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G348" s="1">
         <v>2019</v>
@@ -11574,12 +11575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>49</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -11591,7 +11592,7 @@
         <v>3</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G349" s="1">
         <v>2019</v>
@@ -11606,12 +11607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>49</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -11623,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G350" s="1">
         <v>2019</v>
@@ -11638,12 +11639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>49</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>12</v>
@@ -11670,12 +11671,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>49</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D352" s="1">
         <v>2</v>
@@ -11690,13 +11691,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K352" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>49</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G353" s="1">
         <v>2019</v>
@@ -11728,12 +11729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>49</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>12</v>
@@ -11760,12 +11761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>49</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D355" s="1">
         <v>2</v>
@@ -11783,13 +11784,13 @@
         <v>1</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K355" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>49</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G356" s="1">
         <v>2019</v>
@@ -11821,12 +11822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>49</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>56</v>
@@ -11838,7 +11839,7 @@
         <v>3</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G357" s="1">
         <v>2019</v>
@@ -11853,12 +11854,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>49</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>48</v>
@@ -11885,18 +11886,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>49</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D359" s="1">
         <v>2</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G359" s="1">
         <v>2019</v>
@@ -11905,18 +11906,18 @@
         <v>1</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K359" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>49</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -11925,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G360" s="1">
         <v>2019</v>
@@ -11940,24 +11941,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>49</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" s="1">
+        <v>1</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F361" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D361" s="1">
-        <v>1</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="G361" s="1">
         <v>2019</v>
@@ -11972,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>49</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>3</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G362" s="1">
         <v>2019</v>
@@ -12004,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>49</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>3</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G363" s="1">
         <v>2019</v>
@@ -12036,18 +12037,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>49</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D364" s="1">
         <v>2</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G364" s="1">
         <v>2019</v>
@@ -12056,18 +12057,18 @@
         <v>1</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K364" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>49</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -12079,7 +12080,7 @@
         <v>3</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G365" s="1">
         <v>2019</v>
@@ -12094,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>49</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>3</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G366" s="1">
         <v>2019</v>
@@ -12126,12 +12127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>49</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>0</v>
@@ -12158,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>49</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>3</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G368" s="1">
         <v>2019</v>
@@ -12190,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>49</v>
       </c>
@@ -12222,12 +12223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>49</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>50</v>
@@ -12239,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G370" s="1">
         <v>2019</v>
@@ -12254,12 +12255,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>49</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>29</v>
@@ -12271,7 +12272,7 @@
         <v>19</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G371" s="1">
         <v>2019</v>
@@ -12286,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>49</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G372" s="1">
         <v>2019</v>
@@ -12318,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>49</v>
       </c>
@@ -12341,18 +12342,18 @@
         <v>1</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K373" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>49</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>12</v>
@@ -12364,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G374" s="1">
         <v>2019</v>
@@ -12379,12 +12380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>49</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -12393,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G375" s="1">
         <v>2019</v>
@@ -12402,18 +12403,18 @@
         <v>1</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K375" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>49</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -12425,7 +12426,7 @@
         <v>3</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G376" s="1">
         <v>2019</v>
@@ -12440,12 +12441,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>49</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D377" s="1">
         <v>2</v>
@@ -12454,7 +12455,7 @@
         <v>3</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G377" s="1">
         <v>2019</v>
@@ -12463,18 +12464,18 @@
         <v>1</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K377" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>49</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -12486,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G378" s="1">
         <v>2019</v>
@@ -12501,12 +12502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>49</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>29</v>
@@ -12518,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G379" s="1">
         <v>2019</v>
@@ -12533,24 +12534,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>49</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D380" s="1">
+        <v>1</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F380" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D380" s="1">
-        <v>1</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="G380" s="1">
         <v>2019</v>
@@ -12565,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>49</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G381" s="1">
         <v>2019</v>
@@ -12597,12 +12598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>49</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -12629,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>49</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>19</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G383" s="1">
         <v>2019</v>
@@ -12661,7 +12662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>49</v>
       </c>
@@ -12678,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G384" s="1">
         <v>2019</v>
@@ -12693,12 +12694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>49</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -12707,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G385" s="1">
         <v>2019</v>
@@ -12716,13 +12717,13 @@
         <v>1</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K385" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>49</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>19</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G386" s="1">
         <v>2019</v>
@@ -12754,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>49</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G387" s="1">
         <v>2019</v>
@@ -12777,13 +12778,13 @@
         <v>1</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K387" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>49</v>
       </c>
@@ -12797,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G388" s="1">
         <v>2019</v>
@@ -12812,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>49</v>
       </c>
@@ -12844,12 +12845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>49</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -12858,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G390" s="1">
         <v>2019</v>
@@ -12873,12 +12874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>12</v>
@@ -12887,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G391" s="1">
         <v>2019</v>
@@ -12902,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49</v>
       </c>
@@ -12931,12 +12932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>12</v>
@@ -12948,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G393" s="1">
         <v>2019</v>
@@ -12963,12 +12964,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>69</v>
@@ -12980,7 +12981,7 @@
         <v>19</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G394" s="1">
         <v>2019</v>
@@ -12995,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>19</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G396" s="1">
         <v>2019</v>
@@ -13059,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G397" s="1">
         <v>2019</v>
@@ -13082,18 +13083,18 @@
         <v>1</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K397" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -13105,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G398" s="1">
         <v>2019</v>
@@ -13120,12 +13121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -13137,7 +13138,7 @@
         <v>19</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G399" s="1">
         <v>2019</v>
@@ -13152,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49</v>
       </c>
@@ -13172,18 +13173,18 @@
         <v>1</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K400" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>71</v>
@@ -13195,7 +13196,7 @@
         <v>3</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G401" s="1">
         <v>2019</v>
@@ -13210,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49</v>
       </c>
@@ -13242,12 +13243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>40</v>
@@ -13259,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G403" s="1">
         <v>2019</v>
@@ -13274,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49</v>
       </c>
@@ -13306,12 +13307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D405" s="1">
         <v>2</v>
@@ -13320,7 +13321,7 @@
         <v>19</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G405" s="1">
         <v>2019</v>
@@ -13329,18 +13330,18 @@
         <v>1</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K405" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="D406" s="1">
         <v>2</v>
@@ -13349,7 +13350,7 @@
         <v>19</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G406" s="1">
         <v>2019</v>
@@ -13358,18 +13359,18 @@
         <v>1</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K406" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D407" s="1">
         <v>2</v>
@@ -13378,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G407" s="1">
         <v>2019</v>
@@ -13387,18 +13388,18 @@
         <v>1</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K407" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -13410,7 +13411,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G408" s="1">
         <v>2019</v>
@@ -13425,12 +13426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -13439,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G409" s="1">
         <v>2019</v>
@@ -13454,12 +13455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>49</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>12</v>
@@ -13468,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G410" s="1">
         <v>2019</v>
@@ -13483,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>49</v>
       </c>
@@ -13515,12 +13516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>49</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>37</v>
@@ -13547,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>49</v>
       </c>
@@ -13570,18 +13571,18 @@
         <v>1</v>
       </c>
       <c r="J413" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K413" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>49</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -13608,12 +13609,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>49</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>37</v>
@@ -13625,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G415" s="1">
         <v>2019</v>
@@ -13640,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>49</v>
       </c>
@@ -13672,12 +13673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>49</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -13689,7 +13690,7 @@
         <v>3</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G417" s="1">
         <v>2019</v>
@@ -13704,12 +13705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>49</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -13718,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G418" s="1">
         <v>2019</v>
@@ -13733,12 +13734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>49</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>12</v>
@@ -13750,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G419" s="1">
         <v>2019</v>
@@ -13765,12 +13766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>49</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>69</v>
@@ -13797,12 +13798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>49</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -13814,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G421" s="1">
         <v>2019</v>
@@ -13829,12 +13830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>49</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -13846,7 +13847,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G422" s="1">
         <v>2019</v>
@@ -13862,7 +13863,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K422" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}"/>
+  <autoFilter ref="A1:K422" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Goñi Romero, Rodrigo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K422">
     <sortCondition ref="A2:A422"/>
     <sortCondition ref="B2:B422"/>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED34D43-845D-4EA3-B95D-596FD82A33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428B9BD-AC0B-473D-9CF6-960FD2AEDE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$425</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="428">
   <si>
     <t>San José</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Pasada, Ivonne</t>
   </si>
   <si>
-    <t>Pardiñas, Yerú</t>
-  </si>
-  <si>
     <t>Otheguy, Marcos</t>
   </si>
   <si>
@@ -651,9 +648,6 @@
     <t>Circunscripción</t>
   </si>
   <si>
-    <t>CÁMARA</t>
-  </si>
-  <si>
     <t>PARTIDO</t>
   </si>
   <si>
@@ -1321,6 +1315,12 @@
   </si>
   <si>
     <t>Goni Romero, Rodrigo</t>
+  </si>
+  <si>
+    <t>CAMARA</t>
+  </si>
+  <si>
+    <t>Pardinas, Yerú</t>
   </si>
 </sst>
 </file>
@@ -1675,11 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A242FD-E632-47C8-AC1F-2E59AC859409}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K422"/>
+  <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,45 +1691,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1754,12 +1753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1783,12 +1782,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1812,12 +1811,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1841,12 +1840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1870,12 +1869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1899,12 +1898,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1928,12 +1927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -1957,12 +1956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1986,12 +1985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -2015,12 +2014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2044,12 +2043,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2073,12 +2072,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -2102,12 +2101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2131,12 +2130,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -2160,12 +2159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -2189,12 +2188,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -2218,12 +2217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -2247,12 +2246,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -2276,12 +2275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>71</v>
@@ -2305,12 +2304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -2334,12 +2333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
@@ -2363,12 +2362,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2392,12 +2391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2421,12 +2420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -2450,12 +2449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -2479,12 +2478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -2508,12 +2507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -2537,12 +2536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -2563,12 +2562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -2592,12 +2591,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
@@ -2621,12 +2620,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -2650,12 +2649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -2679,12 +2678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -2708,12 +2707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2737,12 +2736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2766,12 +2765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>22</v>
@@ -2795,12 +2794,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -2824,12 +2823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -2847,12 +2846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2876,12 +2875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2905,12 +2904,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2934,12 +2933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2963,12 +2962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2992,12 +2991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>48</v>
@@ -3021,12 +3020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -3050,12 +3049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3079,12 +3078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -3108,12 +3107,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -3137,12 +3136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3166,12 +3165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -3195,12 +3194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -3224,12 +3223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -3253,12 +3252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -3282,12 +3281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
@@ -3311,12 +3310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
@@ -3340,12 +3339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
@@ -3369,12 +3368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -3395,12 +3394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
@@ -3424,12 +3423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -3453,12 +3452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -3482,12 +3481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -3511,12 +3510,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>36</v>
@@ -3540,12 +3539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -3569,12 +3568,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>47</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -3603,7 +3602,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -3627,12 +3626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -3656,12 +3655,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -3679,12 +3678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>13</v>
@@ -3708,12 +3707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -3737,12 +3736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -3766,12 +3765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>13</v>
@@ -3795,12 +3794,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>47</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3824,12 +3823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
@@ -3853,12 +3852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -3882,12 +3881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>47</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>56</v>
@@ -3911,12 +3910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>13</v>
@@ -3940,12 +3939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -3969,12 +3968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3998,12 +3997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -4027,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>47</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>6</v>
@@ -4056,12 +4055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>47</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -4085,12 +4084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>13</v>
@@ -4114,12 +4113,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -4143,12 +4142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>47</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>36</v>
@@ -4172,12 +4171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>47</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -4201,12 +4200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>13</v>
@@ -4230,12 +4229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -4259,12 +4258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
@@ -4288,12 +4287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>13</v>
@@ -4317,12 +4316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>13</v>
@@ -4346,12 +4345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>47</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -4375,12 +4374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>47</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -4398,12 +4397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -4427,12 +4426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>47</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>13</v>
@@ -4456,12 +4455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>47</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>24</v>
@@ -4485,12 +4484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -4514,12 +4513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -4543,12 +4542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>9</v>
@@ -4572,12 +4571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>47</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>29</v>
@@ -4601,12 +4600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>47</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>123</v>
+        <v>427</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>50</v>
@@ -4630,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>47</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>47</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>3</v>
@@ -4688,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>47</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>47</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>47</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>47</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>47</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>47</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>47</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>47</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>47</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>47</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>47</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>47</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>47</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>47</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>47</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>47</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>47</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>47</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>47</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>47</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>47</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>47</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>47</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>47</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>47</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>47</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>47</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>47</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>47</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>47</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>47</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>47</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>47</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>47</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>47</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -5830,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>47</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>47</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>47</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>47</v>
       </c>
@@ -5946,12 +5945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>47</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -5975,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>47</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>47</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>47</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>47</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>47</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>47</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>47</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>47</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>47</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>47</v>
       </c>
@@ -6294,12 +6293,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>48</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -6320,12 +6319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>48</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D162" s="1">
         <v>2</v>
@@ -6346,12 +6345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>48</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -6372,12 +6371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>48</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D164" s="1">
         <v>2</v>
@@ -6386,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G164" s="1">
         <v>2014</v>
@@ -6401,12 +6400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>48</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -6427,12 +6426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -6453,12 +6452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -6479,12 +6478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>48</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6508,12 +6507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>48</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -6534,12 +6533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>48</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -6560,12 +6559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -6586,12 +6585,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>48</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -6600,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G172" s="1">
         <v>2014</v>
@@ -6612,12 +6611,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>48</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -6638,12 +6637,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>48</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -6664,12 +6663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>48</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -6690,12 +6689,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>48</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -6716,12 +6715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>48</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -6730,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G177" s="1">
         <v>2014</v>
@@ -6742,12 +6741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>48</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -6768,12 +6767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>48</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -6794,12 +6793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>48</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -6820,12 +6819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>48</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -6846,12 +6845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>48</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -6872,12 +6871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>48</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -6898,12 +6897,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>48</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -6924,12 +6923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>48</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -6938,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G185" s="1">
         <v>2014</v>
@@ -6953,12 +6952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>48</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>13</v>
@@ -6982,12 +6981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>48</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -6996,7 +6995,7 @@
         <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G187" s="1">
         <v>2014</v>
@@ -7008,12 +7007,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>48</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -7022,7 +7021,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G188" s="1">
         <v>2014</v>
@@ -7034,15 +7033,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>48</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -7063,12 +7062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>48</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -7089,12 +7088,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>48</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -7115,12 +7114,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>48</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7144,12 +7143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>48</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -7170,12 +7169,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>48</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -7196,12 +7195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>48</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -7222,12 +7221,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>48</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -7248,12 +7247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>48</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -7274,12 +7273,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>48</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -7288,7 +7287,7 @@
         <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G198" s="1">
         <v>2014</v>
@@ -7300,12 +7299,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>48</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -7326,12 +7325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>48</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -7352,12 +7351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>48</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
@@ -7378,12 +7377,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>48</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -7392,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G202" s="1">
         <v>2014</v>
@@ -7404,12 +7403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -7418,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G203" s="1">
         <v>2014</v>
@@ -7430,15 +7429,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>48</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D204" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>1</v>
@@ -7456,12 +7455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>48</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7485,12 +7484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>48</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -7511,12 +7510,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>48</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>32</v>
@@ -7528,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G207" s="1">
         <v>2014</v>
@@ -7540,12 +7539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>48</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -7554,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G208" s="1">
         <v>2014</v>
@@ -7566,12 +7565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>48</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -7592,12 +7591,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>48</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -7618,12 +7617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>48</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -7644,12 +7643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>48</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -7670,12 +7669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>48</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -7696,12 +7695,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>48</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -7722,12 +7721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>48</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -7736,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G215" s="1">
         <v>2014</v>
@@ -7748,22 +7747,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D216" s="1">
-        <v>1</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G216" s="1">
         <v>2014</v>
       </c>
@@ -7774,12 +7773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>48</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -7800,12 +7799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>48</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -7831,7 +7830,7 @@
         <v>48</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -7852,12 +7851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>48</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -7878,12 +7877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>48</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -7904,12 +7903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>48</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -7918,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G222" s="1">
         <v>2014</v>
@@ -7930,12 +7929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>48</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -7956,12 +7955,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>48</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -7982,12 +7981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>48</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D225" s="1">
         <v>2</v>
@@ -7996,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G225" s="1">
         <v>2014</v>
@@ -8008,22 +8007,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>48</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D226" s="1">
-        <v>1</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G226" s="1">
         <v>2014</v>
       </c>
@@ -8034,12 +8033,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>48</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -8048,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G227" s="1">
         <v>2014</v>
@@ -8060,12 +8059,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>48</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -8086,12 +8085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>48</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -8112,22 +8111,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>48</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D230" s="1">
-        <v>1</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G230" s="1">
         <v>2014</v>
       </c>
@@ -8138,22 +8137,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>48</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D231" s="1">
-        <v>1</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G231" s="1">
         <v>2014</v>
       </c>
@@ -8164,12 +8163,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>48</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -8190,12 +8189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>48</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -8216,22 +8215,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D234" s="1">
-        <v>1</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G234" s="1">
         <v>2014</v>
       </c>
@@ -8242,12 +8241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>48</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D235" s="1">
         <v>2</v>
@@ -8268,12 +8267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>48</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -8294,22 +8293,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>48</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D237" s="1">
-        <v>1</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G237" s="1">
         <v>2014</v>
       </c>
@@ -8320,12 +8319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>48</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -8346,12 +8345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>48</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -8372,12 +8371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>48</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -8398,12 +8397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>48</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -8421,12 +8420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>48</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -8447,12 +8446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>48</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -8461,7 +8460,7 @@
         <v>19</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G243" s="1">
         <v>2014</v>
@@ -8473,22 +8472,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>48</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D244" s="1">
-        <v>2</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G244" s="1">
         <v>2014</v>
       </c>
@@ -8499,21 +8498,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>48</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D245" s="1">
-        <v>2</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G245" s="1">
         <v>2014</v>
@@ -8525,12 +8524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>48</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -8551,12 +8550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>48</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D247" s="1">
         <v>2</v>
@@ -8577,12 +8576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>48</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -8603,12 +8602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>48</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
@@ -8629,12 +8628,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>48</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -8655,15 +8654,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>48</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D251" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>3</v>
@@ -8681,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>48</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>48</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>48</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>48</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>48</v>
       </c>
@@ -8823,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>48</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>48</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>48</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>48</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>48</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>48</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>48</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>48</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>48</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>48</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>48</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>48</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>48</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>48</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>48</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>48</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>48</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>48</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>48</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>48</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>48</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>48</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>48</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>48</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>48</v>
       </c>
@@ -9803,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>48</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>48</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>48</v>
       </c>
@@ -9887,12 +9886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>49</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -9901,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G294" s="1">
         <v>2019</v>
@@ -9910,18 +9909,18 @@
         <v>1</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K294" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>49</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>12</v>
@@ -9933,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G295" s="1">
         <v>2019</v>
@@ -9948,12 +9947,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>49</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>56</v>
@@ -9962,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G296" s="1">
         <v>2019</v>
@@ -9977,12 +9976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>49</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>12</v>
@@ -9994,7 +9993,7 @@
         <v>19</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G297" s="1">
         <v>2019</v>
@@ -10009,12 +10008,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>49</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>9</v>
@@ -10026,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G298" s="1">
         <v>2019</v>
@@ -10041,12 +10040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>49</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D299" s="1">
         <v>2</v>
@@ -10055,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G299" s="1">
         <v>2019</v>
@@ -10064,18 +10063,18 @@
         <v>1</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K299" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>49</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>12</v>
@@ -10087,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G300" s="1">
         <v>2019</v>
@@ -10102,12 +10101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>49</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>38</v>
@@ -10134,12 +10133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>49</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D302" s="1">
         <v>2</v>
@@ -10148,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G302" s="1">
         <v>2019</v>
@@ -10157,18 +10156,18 @@
         <v>1</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K302" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>49</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -10177,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G303" s="1">
         <v>2019</v>
@@ -10186,18 +10185,18 @@
         <v>1</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K303" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>49</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>0</v>
@@ -10209,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G304" s="1">
         <v>2019</v>
@@ -10224,12 +10223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>49</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -10241,7 +10240,7 @@
         <v>3</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G305" s="1">
         <v>2019</v>
@@ -10256,12 +10255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>49</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -10276,18 +10275,18 @@
         <v>1</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K306" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>49</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>24</v>
@@ -10299,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G307" s="1">
         <v>2019</v>
@@ -10314,12 +10313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>49</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -10328,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G308" s="1">
         <v>2019</v>
@@ -10337,18 +10336,18 @@
         <v>1</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K308" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>49</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>38</v>
@@ -10360,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G309" s="1">
         <v>2019</v>
@@ -10375,12 +10374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>49</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -10398,18 +10397,18 @@
         <v>1</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K310" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>49</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D311" s="1">
         <v>2</v>
@@ -10418,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G311" s="1">
         <v>2019</v>
@@ -10427,18 +10426,18 @@
         <v>1</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K311" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>49</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>29</v>
@@ -10465,12 +10464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>49</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>50</v>
@@ -10479,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G313" s="1">
         <v>2019</v>
@@ -10494,12 +10493,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>49</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -10526,12 +10525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>49</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -10558,12 +10557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>49</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>38</v>
@@ -10572,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G316" s="1">
         <v>2019</v>
@@ -10587,12 +10586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>49</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>9</v>
@@ -10601,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G317" s="1">
         <v>2019</v>
@@ -10616,12 +10615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>49</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D318" s="1">
         <v>2</v>
@@ -10630,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G318" s="1">
         <v>2019</v>
@@ -10639,18 +10638,18 @@
         <v>1</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K318" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>49</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -10659,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G319" s="1">
         <v>2019</v>
@@ -10674,12 +10673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>49</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -10706,12 +10705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>49</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>38</v>
@@ -10723,7 +10722,7 @@
         <v>19</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G321" s="1">
         <v>2019</v>
@@ -10738,12 +10737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>49</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D322" s="1">
         <v>2</v>
@@ -10761,18 +10760,18 @@
         <v>1</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K322" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>49</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>71</v>
@@ -10784,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G323" s="1">
         <v>2019</v>
@@ -10799,12 +10798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>49</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -10816,7 +10815,7 @@
         <v>3</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G324" s="1">
         <v>2019</v>
@@ -10831,12 +10830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>49</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>69</v>
@@ -10848,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G325" s="1">
         <v>2019</v>
@@ -10863,12 +10862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>49</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D326" s="1">
         <v>2</v>
@@ -10877,7 +10876,7 @@
         <v>3</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G326" s="1">
         <v>2019</v>
@@ -10886,18 +10885,18 @@
         <v>1</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K326" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>49</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -10906,7 +10905,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G327" s="1">
         <v>2019</v>
@@ -10915,18 +10914,18 @@
         <v>1</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K327" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>49</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -10938,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G328" s="1">
         <v>2019</v>
@@ -10953,12 +10952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>49</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>22</v>
@@ -10970,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G329" s="1">
         <v>2019</v>
@@ -10985,12 +10984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>49</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -11002,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G330" s="1">
         <v>2019</v>
@@ -11017,12 +11016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>49</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -11037,18 +11036,18 @@
         <v>1</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K331" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>49</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -11075,18 +11074,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>49</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G333" s="1">
         <v>2019</v>
@@ -11095,18 +11094,18 @@
         <v>1</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K333" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>49</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>48</v>
@@ -11118,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G334" s="1">
         <v>2019</v>
@@ -11133,12 +11132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>49</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>38</v>
@@ -11150,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G335" s="1">
         <v>2019</v>
@@ -11165,12 +11164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>49</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>22</v>
@@ -11179,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G336" s="1">
         <v>2019</v>
@@ -11194,12 +11193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>49</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>32</v>
@@ -11211,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G337" s="1">
         <v>2019</v>
@@ -11226,12 +11225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>49</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>56</v>
@@ -11243,7 +11242,7 @@
         <v>19</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G338" s="1">
         <v>2019</v>
@@ -11258,12 +11257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>49</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>12</v>
@@ -11290,12 +11289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>49</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>56</v>
@@ -11307,7 +11306,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G340" s="1">
         <v>2019</v>
@@ -11322,12 +11321,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>49</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>22</v>
@@ -11354,12 +11353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>49</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>50</v>
@@ -11386,12 +11385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>49</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -11418,12 +11417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>49</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -11432,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G344" s="1">
         <v>2019</v>
@@ -11441,18 +11440,18 @@
         <v>1</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K344" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>49</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>36</v>
@@ -11464,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G345" s="1">
         <v>2019</v>
@@ -11479,12 +11478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>49</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -11496,7 +11495,7 @@
         <v>3</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G346" s="1">
         <v>2019</v>
@@ -11511,12 +11510,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>49</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -11528,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G347" s="1">
         <v>2019</v>
@@ -11548,7 +11547,7 @@
         <v>49</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -11560,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G348" s="1">
         <v>2019</v>
@@ -11575,12 +11574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>49</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -11592,7 +11591,7 @@
         <v>3</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G349" s="1">
         <v>2019</v>
@@ -11607,12 +11606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>49</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -11624,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G350" s="1">
         <v>2019</v>
@@ -11639,12 +11638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>49</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>12</v>
@@ -11671,12 +11670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>49</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D352" s="1">
         <v>2</v>
@@ -11691,18 +11690,18 @@
         <v>1</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K352" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>49</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>6</v>
@@ -11714,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G353" s="1">
         <v>2019</v>
@@ -11729,12 +11728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>49</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>12</v>
@@ -11761,12 +11760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>49</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D355" s="1">
         <v>2</v>
@@ -11784,18 +11783,18 @@
         <v>1</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K355" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>49</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -11807,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G356" s="1">
         <v>2019</v>
@@ -11822,12 +11821,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>49</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>56</v>
@@ -11839,7 +11838,7 @@
         <v>3</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G357" s="1">
         <v>2019</v>
@@ -11854,12 +11853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>49</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>48</v>
@@ -11886,18 +11885,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>49</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D359" s="1">
         <v>2</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G359" s="1">
         <v>2019</v>
@@ -11906,18 +11905,18 @@
         <v>1</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K359" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>49</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -11926,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G360" s="1">
         <v>2019</v>
@@ -11941,12 +11940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>49</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -11958,7 +11957,7 @@
         <v>3</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G361" s="1">
         <v>2019</v>
@@ -11973,12 +11972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>49</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>12</v>
@@ -11990,7 +11989,7 @@
         <v>3</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G362" s="1">
         <v>2019</v>
@@ -12005,12 +12004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>49</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>24</v>
@@ -12022,7 +12021,7 @@
         <v>3</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G363" s="1">
         <v>2019</v>
@@ -12037,18 +12036,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>49</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D364" s="1">
         <v>2</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G364" s="1">
         <v>2019</v>
@@ -12057,18 +12056,18 @@
         <v>1</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K364" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>49</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -12080,7 +12079,7 @@
         <v>3</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G365" s="1">
         <v>2019</v>
@@ -12095,12 +12094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>49</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>6</v>
@@ -12112,7 +12111,7 @@
         <v>3</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G366" s="1">
         <v>2019</v>
@@ -12127,12 +12126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>49</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>0</v>
@@ -12159,12 +12158,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>49</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>40</v>
@@ -12176,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G368" s="1">
         <v>2019</v>
@@ -12191,12 +12190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>49</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>12</v>
@@ -12223,12 +12222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>49</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>50</v>
@@ -12240,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G370" s="1">
         <v>2019</v>
@@ -12255,12 +12254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>49</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>29</v>
@@ -12272,7 +12271,7 @@
         <v>19</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G371" s="1">
         <v>2019</v>
@@ -12287,12 +12286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>49</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -12304,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G372" s="1">
         <v>2019</v>
@@ -12319,12 +12318,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>49</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -12342,18 +12341,18 @@
         <v>1</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K373" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>49</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>12</v>
@@ -12365,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G374" s="1">
         <v>2019</v>
@@ -12380,12 +12379,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>49</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -12394,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G375" s="1">
         <v>2019</v>
@@ -12403,18 +12402,18 @@
         <v>1</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K375" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>49</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -12426,7 +12425,7 @@
         <v>3</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G376" s="1">
         <v>2019</v>
@@ -12441,12 +12440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>49</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D377" s="1">
         <v>2</v>
@@ -12455,7 +12454,7 @@
         <v>3</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G377" s="1">
         <v>2019</v>
@@ -12464,18 +12463,18 @@
         <v>1</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K377" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>49</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -12487,7 +12486,7 @@
         <v>3</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G378" s="1">
         <v>2019</v>
@@ -12502,12 +12501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>49</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>29</v>
@@ -12519,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G379" s="1">
         <v>2019</v>
@@ -12534,12 +12533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>49</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -12551,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G380" s="1">
         <v>2019</v>
@@ -12566,12 +12565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>49</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>9</v>
@@ -12583,7 +12582,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G381" s="1">
         <v>2019</v>
@@ -12598,12 +12597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>49</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -12630,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>49</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>19</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G383" s="1">
         <v>2019</v>
@@ -12662,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>49</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G384" s="1">
         <v>2019</v>
@@ -12694,12 +12693,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>49</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -12708,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G385" s="1">
         <v>2019</v>
@@ -12717,13 +12716,13 @@
         <v>1</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K385" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>49</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>19</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G386" s="1">
         <v>2019</v>
@@ -12755,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>49</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G387" s="1">
         <v>2019</v>
@@ -12778,13 +12777,13 @@
         <v>1</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K387" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>49</v>
       </c>
@@ -12798,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G388" s="1">
         <v>2019</v>
@@ -12813,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>49</v>
       </c>
@@ -12845,12 +12844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>49</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -12859,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G390" s="1">
         <v>2019</v>
@@ -12874,12 +12873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>12</v>
@@ -12888,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G391" s="1">
         <v>2019</v>
@@ -12903,7 +12902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49</v>
       </c>
@@ -12932,12 +12931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>12</v>
@@ -12949,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G393" s="1">
         <v>2019</v>
@@ -12964,12 +12963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>69</v>
@@ -12981,7 +12980,7 @@
         <v>19</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G394" s="1">
         <v>2019</v>
@@ -12996,7 +12995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>19</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G396" s="1">
         <v>2019</v>
@@ -13060,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>1</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G397" s="1">
         <v>2019</v>
@@ -13083,18 +13082,18 @@
         <v>1</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K397" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -13106,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G398" s="1">
         <v>2019</v>
@@ -13121,12 +13120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -13138,7 +13137,7 @@
         <v>19</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G399" s="1">
         <v>2019</v>
@@ -13153,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49</v>
       </c>
@@ -13173,18 +13172,18 @@
         <v>1</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K400" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>71</v>
@@ -13196,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G401" s="1">
         <v>2019</v>
@@ -13211,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49</v>
       </c>
@@ -13243,12 +13242,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>40</v>
@@ -13260,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G403" s="1">
         <v>2019</v>
@@ -13275,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49</v>
       </c>
@@ -13307,12 +13306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D405" s="1">
         <v>2</v>
@@ -13321,7 +13320,7 @@
         <v>19</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G405" s="1">
         <v>2019</v>
@@ -13330,18 +13329,18 @@
         <v>1</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K405" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D406" s="1">
         <v>2</v>
@@ -13350,7 +13349,7 @@
         <v>19</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G406" s="1">
         <v>2019</v>
@@ -13359,18 +13358,18 @@
         <v>1</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K406" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D407" s="1">
         <v>2</v>
@@ -13379,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G407" s="1">
         <v>2019</v>
@@ -13388,18 +13387,18 @@
         <v>1</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K407" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -13411,7 +13410,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G408" s="1">
         <v>2019</v>
@@ -13426,12 +13425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -13440,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G409" s="1">
         <v>2019</v>
@@ -13455,12 +13454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>49</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>12</v>
@@ -13469,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G410" s="1">
         <v>2019</v>
@@ -13484,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>49</v>
       </c>
@@ -13516,12 +13515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>49</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>37</v>
@@ -13548,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>49</v>
       </c>
@@ -13571,18 +13570,18 @@
         <v>1</v>
       </c>
       <c r="J413" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K413" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>49</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -13609,12 +13608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>49</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>37</v>
@@ -13626,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G415" s="1">
         <v>2019</v>
@@ -13641,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>49</v>
       </c>
@@ -13673,12 +13672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>49</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -13690,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G417" s="1">
         <v>2019</v>
@@ -13705,12 +13704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>49</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -13719,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G418" s="1">
         <v>2019</v>
@@ -13734,12 +13733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>49</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>12</v>
@@ -13751,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G419" s="1">
         <v>2019</v>
@@ -13766,12 +13765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>49</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>69</v>
@@ -13798,12 +13797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>49</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -13815,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G421" s="1">
         <v>2019</v>
@@ -13830,12 +13829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>49</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -13847,7 +13846,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G422" s="1">
         <v>2019</v>
@@ -13862,14 +13861,89 @@
         <v>1</v>
       </c>
     </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>48</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D423" s="1">
+        <v>2</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G423" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I423" s="1">
+        <v>1</v>
+      </c>
+      <c r="K423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>48</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D424" s="1">
+        <v>2</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G424" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I424" s="1">
+        <v>1</v>
+      </c>
+      <c r="K424" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>48</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D425" s="1">
+        <v>2</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I425" s="1">
+        <v>1</v>
+      </c>
+      <c r="K425" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K422" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Goñi Romero, Rodrigo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K425" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K422">
     <sortCondition ref="A2:A422"/>
     <sortCondition ref="B2:B422"/>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428B9BD-AC0B-473D-9CF6-960FD2AEDE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0079F-3940-4179-B03E-C17C9259D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7492,7 +7492,7 @@
         <v>349</v>
       </c>
       <c r="D206" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>19</v>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0079F-3940-4179-B03E-C17C9259D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B40B0-7CD4-4487-ADE8-B28E1356B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="427">
   <si>
     <t>San José</t>
   </si>
@@ -1312,9 +1312,6 @@
   </si>
   <si>
     <t>Rosello, Maria Eugenia</t>
-  </si>
-  <si>
-    <t>Goni Romero, Rodrigo</t>
   </si>
   <si>
     <t>CAMARA</t>
@@ -1675,10 +1672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A242FD-E632-47C8-AC1F-2E59AC859409}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1698,7 @@
         <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>203</v>
@@ -1724,7 +1722,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>47</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>47</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>47</v>
       </c>
@@ -1811,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>47</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>47</v>
       </c>
@@ -1869,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>47</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47</v>
       </c>
@@ -1956,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>47</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>47</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>47</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>47</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>47</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>47</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>47</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>47</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>47</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
@@ -2562,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
@@ -2591,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -2707,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47</v>
       </c>
@@ -2736,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3136,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47</v>
       </c>
@@ -3310,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>47</v>
       </c>
@@ -3394,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>47</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>47</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -3539,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>47</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>47</v>
       </c>
@@ -3655,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>47</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>47</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>47</v>
       </c>
@@ -3736,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>47</v>
       </c>
@@ -3765,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>47</v>
       </c>
@@ -3794,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>47</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>47</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>47</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>47</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>47</v>
       </c>
@@ -3939,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>47</v>
       </c>
@@ -3968,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
@@ -3997,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>47</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>47</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>47</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>47</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>47</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>47</v>
       </c>
@@ -4171,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>47</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>47</v>
       </c>
@@ -4229,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>47</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>47</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>47</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>47</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>47</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>47</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>47</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>47</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>47</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>47</v>
       </c>
@@ -4542,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>47</v>
       </c>
@@ -4571,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>47</v>
       </c>
@@ -4600,12 +4598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>47</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>50</v>
@@ -4629,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>47</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>47</v>
       </c>
@@ -4687,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>47</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>47</v>
       </c>
@@ -4745,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -4774,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>47</v>
       </c>
@@ -4803,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>47</v>
       </c>
@@ -4832,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>47</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -4884,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>47</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>47</v>
       </c>
@@ -4942,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>47</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>47</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>47</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>47</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>47</v>
       </c>
@@ -5087,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>47</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -5139,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>47</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>47</v>
       </c>
@@ -5194,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>47</v>
       </c>
@@ -5223,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>47</v>
       </c>
@@ -5252,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>47</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>47</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>47</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>47</v>
       </c>
@@ -5365,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>47</v>
       </c>
@@ -5394,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>47</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>47</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>47</v>
       </c>
@@ -5481,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>47</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>47</v>
       </c>
@@ -5539,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>47</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>47</v>
       </c>
@@ -5597,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>47</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>47</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>47</v>
       </c>
@@ -5684,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>47</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>47</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>47</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -5800,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>47</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>47</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>47</v>
       </c>
@@ -5916,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>47</v>
       </c>
@@ -5945,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>47</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>47</v>
       </c>
@@ -6003,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>47</v>
       </c>
@@ -6032,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>47</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>47</v>
       </c>
@@ -6090,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>47</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>47</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>47</v>
       </c>
@@ -6206,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>47</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>47</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>47</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>48</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>48</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>48</v>
       </c>
@@ -6371,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>48</v>
       </c>
@@ -6400,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>48</v>
       </c>
@@ -6426,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>48</v>
       </c>
@@ -6452,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>48</v>
       </c>
@@ -6478,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>48</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>48</v>
       </c>
@@ -6533,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>48</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>48</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>48</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>48</v>
       </c>
@@ -6637,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>48</v>
       </c>
@@ -6663,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>48</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>48</v>
       </c>
@@ -6715,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>48</v>
       </c>
@@ -6741,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>48</v>
       </c>
@@ -6767,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>48</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>48</v>
       </c>
@@ -6819,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>48</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>48</v>
       </c>
@@ -6871,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>48</v>
       </c>
@@ -6897,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>48</v>
       </c>
@@ -6923,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>48</v>
       </c>
@@ -6952,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>48</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>48</v>
       </c>
@@ -7007,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>48</v>
       </c>
@@ -7033,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>48</v>
       </c>
@@ -7062,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>48</v>
       </c>
@@ -7088,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>48</v>
       </c>
@@ -7114,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>48</v>
       </c>
@@ -7143,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>48</v>
       </c>
@@ -7169,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>48</v>
       </c>
@@ -7195,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>48</v>
       </c>
@@ -7221,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>48</v>
       </c>
@@ -7247,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>48</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>48</v>
       </c>
@@ -7299,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>48</v>
       </c>
@@ -7325,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>48</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>48</v>
       </c>
@@ -7377,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>48</v>
       </c>
@@ -7403,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>48</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>48</v>
       </c>
@@ -7455,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>48</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>48</v>
       </c>
@@ -7510,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>48</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>48</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>48</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>48</v>
       </c>
@@ -7617,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>48</v>
       </c>
@@ -7643,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>48</v>
       </c>
@@ -7669,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>48</v>
       </c>
@@ -7695,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>48</v>
       </c>
@@ -7721,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>48</v>
       </c>
@@ -7747,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>48</v>
       </c>
@@ -7799,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>48</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>48</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -7851,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>48</v>
       </c>
@@ -7877,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>48</v>
       </c>
@@ -7903,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>48</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>48</v>
       </c>
@@ -7955,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>48</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>48</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>48</v>
       </c>
@@ -8033,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>48</v>
       </c>
@@ -8059,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>48</v>
       </c>
@@ -8085,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>48</v>
       </c>
@@ -8111,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>48</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>48</v>
       </c>
@@ -8163,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>48</v>
       </c>
@@ -8189,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>48</v>
       </c>
@@ -8215,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>48</v>
       </c>
@@ -8241,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>48</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>48</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>48</v>
       </c>
@@ -8319,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>48</v>
       </c>
@@ -8345,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>48</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>48</v>
       </c>
@@ -8397,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>48</v>
       </c>
@@ -8420,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>48</v>
       </c>
@@ -8446,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>48</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>48</v>
       </c>
@@ -8498,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>48</v>
       </c>
@@ -8524,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>48</v>
       </c>
@@ -8550,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>48</v>
       </c>
@@ -8576,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>48</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>48</v>
       </c>
@@ -8628,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>48</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>48</v>
       </c>
@@ -8680,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>48</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>48</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>48</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>48</v>
       </c>
@@ -8793,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>48</v>
       </c>
@@ -8822,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>48</v>
       </c>
@@ -8851,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>48</v>
       </c>
@@ -8880,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>48</v>
       </c>
@@ -8909,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>48</v>
       </c>
@@ -8938,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>48</v>
       </c>
@@ -8967,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>48</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>48</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>48</v>
       </c>
@@ -9054,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>48</v>
       </c>
@@ -9083,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>48</v>
       </c>
@@ -9112,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>48</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>48</v>
       </c>
@@ -9170,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>48</v>
       </c>
@@ -9199,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>48</v>
       </c>
@@ -9228,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -9286,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -9315,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -9373,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -9402,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -9431,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -9460,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>48</v>
       </c>
@@ -9489,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>48</v>
       </c>
@@ -9518,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>48</v>
       </c>
@@ -9547,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>48</v>
       </c>
@@ -9602,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>48</v>
       </c>
@@ -9631,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>48</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>48</v>
       </c>
@@ -9686,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>48</v>
       </c>
@@ -9715,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>48</v>
       </c>
@@ -9744,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>48</v>
       </c>
@@ -9773,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>48</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>48</v>
       </c>
@@ -9831,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>48</v>
       </c>
@@ -9857,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>48</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>49</v>
       </c>
@@ -9915,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>49</v>
       </c>
@@ -9947,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>49</v>
       </c>
@@ -9976,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>49</v>
       </c>
@@ -10008,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>49</v>
       </c>
@@ -10040,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>49</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>49</v>
       </c>
@@ -10101,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>49</v>
       </c>
@@ -10133,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>49</v>
       </c>
@@ -10162,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>49</v>
       </c>
@@ -10191,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>49</v>
       </c>
@@ -10223,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>49</v>
       </c>
@@ -10255,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>49</v>
       </c>
@@ -10281,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>49</v>
       </c>
@@ -10313,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>49</v>
       </c>
@@ -10342,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>49</v>
       </c>
@@ -10374,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>49</v>
       </c>
@@ -10403,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>49</v>
       </c>
@@ -10432,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>49</v>
       </c>
@@ -10464,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>49</v>
       </c>
@@ -10493,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>49</v>
       </c>
@@ -10525,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>49</v>
       </c>
@@ -10557,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>49</v>
       </c>
@@ -10586,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>49</v>
       </c>
@@ -10615,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>49</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>49</v>
       </c>
@@ -10673,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>49</v>
       </c>
@@ -10705,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>49</v>
       </c>
@@ -10737,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>49</v>
       </c>
@@ -10766,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>49</v>
       </c>
@@ -10798,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>49</v>
       </c>
@@ -10830,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>49</v>
       </c>
@@ -10862,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>49</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>49</v>
       </c>
@@ -10920,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>49</v>
       </c>
@@ -10952,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>49</v>
       </c>
@@ -10984,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>49</v>
       </c>
@@ -11016,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>49</v>
       </c>
@@ -11042,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>49</v>
       </c>
@@ -11074,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>49</v>
       </c>
@@ -11100,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>49</v>
       </c>
@@ -11132,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>49</v>
       </c>
@@ -11164,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>49</v>
       </c>
@@ -11193,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>49</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>49</v>
       </c>
@@ -11257,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>49</v>
       </c>
@@ -11289,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>49</v>
       </c>
@@ -11321,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>49</v>
       </c>
@@ -11353,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>49</v>
       </c>
@@ -11385,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>49</v>
       </c>
@@ -11417,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>49</v>
       </c>
@@ -11446,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>49</v>
       </c>
@@ -11478,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>49</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>49</v>
       </c>
@@ -11574,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>49</v>
       </c>
@@ -11606,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>49</v>
       </c>
@@ -11638,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>49</v>
       </c>
@@ -11670,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>49</v>
       </c>
@@ -11696,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>49</v>
       </c>
@@ -11728,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>49</v>
       </c>
@@ -11760,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>49</v>
       </c>
@@ -11789,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>49</v>
       </c>
@@ -11821,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>49</v>
       </c>
@@ -11853,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>49</v>
       </c>
@@ -11885,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>49</v>
       </c>
@@ -11911,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>49</v>
       </c>
@@ -11940,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>49</v>
       </c>
@@ -11972,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>49</v>
       </c>
@@ -12004,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>49</v>
       </c>
@@ -12036,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>49</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>49</v>
       </c>
@@ -12094,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>49</v>
       </c>
@@ -12126,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>49</v>
       </c>
@@ -12158,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>49</v>
       </c>
@@ -12190,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>49</v>
       </c>
@@ -12222,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>49</v>
       </c>
@@ -12254,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>49</v>
       </c>
@@ -12286,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>49</v>
       </c>
@@ -12318,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>49</v>
       </c>
@@ -12347,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>49</v>
       </c>
@@ -12379,7 +12377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>49</v>
       </c>
@@ -12408,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>49</v>
       </c>
@@ -12440,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>49</v>
       </c>
@@ -12469,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>49</v>
       </c>
@@ -12501,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>49</v>
       </c>
@@ -12533,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>49</v>
       </c>
@@ -12565,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>49</v>
       </c>
@@ -12597,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>49</v>
       </c>
@@ -12629,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>49</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>49</v>
       </c>
@@ -12693,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>49</v>
       </c>
@@ -12722,7 +12720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>49</v>
       </c>
@@ -12754,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>49</v>
       </c>
@@ -12783,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>49</v>
       </c>
@@ -12812,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>49</v>
       </c>
@@ -12844,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>49</v>
       </c>
@@ -12873,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49</v>
       </c>
@@ -12902,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49</v>
       </c>
@@ -12931,7 +12929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49</v>
       </c>
@@ -12963,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49</v>
       </c>
@@ -12995,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49</v>
       </c>
@@ -13027,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49</v>
       </c>
@@ -13059,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49</v>
       </c>
@@ -13088,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49</v>
       </c>
@@ -13152,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49</v>
       </c>
@@ -13178,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49</v>
       </c>
@@ -13210,7 +13208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49</v>
       </c>
@@ -13242,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49</v>
       </c>
@@ -13274,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49</v>
       </c>
@@ -13306,7 +13304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49</v>
       </c>
@@ -13335,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49</v>
       </c>
@@ -13364,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49</v>
       </c>
@@ -13393,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49</v>
       </c>
@@ -13425,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49</v>
       </c>
@@ -13454,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>49</v>
       </c>
@@ -13483,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>49</v>
       </c>
@@ -13515,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>49</v>
       </c>
@@ -13547,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>49</v>
       </c>
@@ -13576,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>49</v>
       </c>
@@ -13608,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>49</v>
       </c>
@@ -13640,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>49</v>
       </c>
@@ -13672,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>49</v>
       </c>
@@ -13704,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>49</v>
       </c>
@@ -13733,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>49</v>
       </c>
@@ -13765,7 +13763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>49</v>
       </c>
@@ -13797,7 +13795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>49</v>
       </c>
@@ -13829,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>49</v>
       </c>
@@ -13861,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>48</v>
       </c>
@@ -13890,12 +13888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>48</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D424" s="1">
         <v>2</v>
@@ -13916,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>48</v>
       </c>
@@ -13943,7 +13941,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K425" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}"/>
+  <autoFilter ref="A1:K425" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Goñi Romero, Rodrigo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K422">
     <sortCondition ref="A2:A422"/>
     <sortCondition ref="B2:B422"/>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B40B0-7CD4-4487-ADE8-B28E1356B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4712-67F0-44AC-8C48-77E326C33942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="427">
   <si>
     <t>San José</t>
   </si>
@@ -1676,13 +1676,13 @@
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+      <selection activeCell="F428" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -7834,13 +7834,13 @@
         <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F219" s="1">
-        <v>609</v>
+        <v>1</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G219" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="I219" s="1">
         <v>1</v>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4712-67F0-44AC-8C48-77E326C33942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915A146-35AB-4646-9C43-1D7AC3365F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -1676,7 +1676,7 @@
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F428" sqref="F428"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/bases_raw/parlamentarios2005_2020.xlsx
+++ b/data-raw/bases_raw/parlamentarios2005_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915A146-35AB-4646-9C43-1D7AC3365F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E90664-54D6-4F4C-9EE1-A2C8BA849571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3F63BF-34A6-4240-B6E3-A92C5D806B46}"/>
   </bookViews>
@@ -438,9 +438,6 @@
     <t>Mutti Fornaroli, Manuela</t>
   </si>
   <si>
-    <t>Mujica, José</t>
-  </si>
-  <si>
     <t>Mujica, Gonzalo</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>Larzábal, Nelson</t>
   </si>
   <si>
-    <t>Larrañaga, Jorge</t>
-  </si>
-  <si>
     <t>Lafluf, Omar</t>
   </si>
   <si>
@@ -1318,6 +1312,12 @@
   </si>
   <si>
     <t>Pardinas, Yerú</t>
+  </si>
+  <si>
+    <t>Mujica Cordano, José</t>
+  </si>
+  <si>
+    <t>Larrañaga, Jorge W.</t>
   </si>
 </sst>
 </file>
@@ -1672,11 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A242FD-E632-47C8-AC1F-2E59AC859409}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,45 +1688,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1751,12 +1750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1780,12 +1779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1809,12 +1808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1838,12 +1837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1867,12 +1866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1896,12 +1895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1925,12 +1924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -1954,12 +1953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1983,12 +1982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -2012,12 +2011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2041,12 +2040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2070,12 +2069,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -2099,12 +2098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2128,12 +2127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -2157,12 +2156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -2186,12 +2185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -2215,12 +2214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -2244,12 +2243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -2273,12 +2272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>71</v>
@@ -2302,12 +2301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -2331,12 +2330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
@@ -2360,12 +2359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2389,12 +2388,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2418,12 +2417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -2447,12 +2446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -2476,12 +2475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -2505,12 +2504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -2534,12 +2533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -2560,12 +2559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -2589,12 +2588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
@@ -2618,12 +2617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -2647,12 +2646,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -2676,12 +2675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -2705,12 +2704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2734,12 +2733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2763,12 +2762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>22</v>
@@ -2792,12 +2791,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -2821,12 +2820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -2844,12 +2843,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2873,12 +2872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2902,12 +2901,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2931,12 +2930,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2960,12 +2959,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2989,12 +2988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>48</v>
@@ -3018,12 +3017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -3047,12 +3046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3076,12 +3075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -3105,12 +3104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -3134,12 +3133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3163,12 +3162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -3192,12 +3191,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -3221,12 +3220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -3250,12 +3249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -3279,12 +3278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
@@ -3308,12 +3307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
@@ -3337,12 +3336,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
@@ -3366,12 +3365,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -3392,12 +3391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
@@ -3421,12 +3420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -3450,12 +3449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -3479,12 +3478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -3508,12 +3507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>36</v>
@@ -3537,12 +3536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -3566,12 +3565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>47</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -3600,7 +3599,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -3624,12 +3623,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -3653,12 +3652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -3676,12 +3675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>13</v>
@@ -3705,12 +3704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -3734,12 +3733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -3763,12 +3762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>13</v>
@@ -3792,12 +3791,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>47</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3821,12 +3820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
@@ -3850,12 +3849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -3879,12 +3878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>47</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>56</v>
@@ -3908,12 +3907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>13</v>
@@ -3937,12 +3936,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -3966,12 +3965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3995,12 +3994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -4024,12 +4023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>47</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>6</v>
@@ -4053,12 +4052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>47</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -4082,12 +4081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>13</v>
@@ -4111,12 +4110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -4140,12 +4139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>47</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>36</v>
@@ -4169,12 +4168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>47</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -4198,12 +4197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>13</v>
@@ -4227,12 +4226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -4256,12 +4255,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
@@ -4285,12 +4284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>13</v>
@@ -4314,12 +4313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>13</v>
@@ -4343,12 +4342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>47</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -4372,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>47</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>47</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>47</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>47</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>47</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>47</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>47</v>
       </c>
@@ -4598,12 +4597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>47</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>50</v>
@@ -4627,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>47</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>47</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>47</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>47</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>47</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>47</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>47</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>47</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>47</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>47</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>47</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>47</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>47</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>47</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>47</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>47</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>47</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>47</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>47</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>47</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>47</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>47</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>47</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>47</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>47</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>47</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>47</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>47</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>47</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>47</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>47</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>47</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>47</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>47</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>47</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>47</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>47</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>47</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>47</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>47</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>47</v>
       </c>
@@ -5943,12 +5942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>47</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -5972,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>47</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>47</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>47</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>47</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>47</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>47</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>47</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>47</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>47</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>47</v>
       </c>
@@ -6291,12 +6290,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>48</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -6317,12 +6316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>48</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D162" s="1">
         <v>2</v>
@@ -6343,12 +6342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>48</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -6369,12 +6368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>48</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D164" s="1">
         <v>2</v>
@@ -6383,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G164" s="1">
         <v>2014</v>
@@ -6398,12 +6397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>48</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -6424,12 +6423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -6450,12 +6449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -6476,12 +6475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>48</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6505,12 +6504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>48</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -6531,12 +6530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>48</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -6557,12 +6556,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -6583,12 +6582,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>48</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -6597,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G172" s="1">
         <v>2014</v>
@@ -6609,12 +6608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>48</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -6635,12 +6634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>48</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -6661,12 +6660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>48</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -6687,12 +6686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>48</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -6713,12 +6712,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>48</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -6727,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G177" s="1">
         <v>2014</v>
@@ -6739,12 +6738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>48</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -6765,12 +6764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>48</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -6791,12 +6790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>48</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -6817,12 +6816,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>48</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -6843,12 +6842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>48</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -6869,12 +6868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>48</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -6895,12 +6894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>48</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -6921,12 +6920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>48</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -6935,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G185" s="1">
         <v>2014</v>
@@ -6950,12 +6949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>48</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>13</v>
@@ -6979,12 +6978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>48</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -6993,7 +6992,7 @@
         <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G187" s="1">
         <v>2014</v>
@@ -7005,12 +7004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>48</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -7019,7 +7018,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G188" s="1">
         <v>2014</v>
@@ -7031,15 +7030,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>48</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -7060,12 +7059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>48</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -7086,12 +7085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>48</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -7112,12 +7111,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>48</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7141,12 +7140,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>48</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -7167,12 +7166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>48</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -7193,12 +7192,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>48</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -7219,12 +7218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>48</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -7245,12 +7244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>48</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -7271,12 +7270,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>48</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -7285,7 +7284,7 @@
         <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G198" s="1">
         <v>2014</v>
@@ -7297,12 +7296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>48</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -7323,12 +7322,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>48</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -7349,12 +7348,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>48</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
@@ -7375,12 +7374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>48</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -7389,7 +7388,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G202" s="1">
         <v>2014</v>
@@ -7401,12 +7400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -7415,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G203" s="1">
         <v>2014</v>
@@ -7427,12 +7426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>48</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -7453,12 +7452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>48</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7482,12 +7481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>48</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D206" s="1">
         <v>2</v>
@@ -7508,12 +7507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>48</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>32</v>
@@ -7525,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G207" s="1">
         <v>2014</v>
@@ -7537,12 +7536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>48</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -7551,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G208" s="1">
         <v>2014</v>
@@ -7563,12 +7562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>48</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -7589,12 +7588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>48</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -7615,12 +7614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>48</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -7641,12 +7640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>48</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -7667,12 +7666,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>48</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -7693,12 +7692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>48</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -7719,12 +7718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>48</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -7733,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G215" s="1">
         <v>2014</v>
@@ -7745,12 +7744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -7759,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G216" s="1">
         <v>2014</v>
@@ -7771,12 +7770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>48</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -7797,12 +7796,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>48</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -7828,7 +7827,7 @@
         <v>48</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -7849,12 +7848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>48</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -7875,12 +7874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>48</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -7901,12 +7900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>48</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -7915,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G222" s="1">
         <v>2014</v>
@@ -7927,12 +7926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>48</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -7953,12 +7952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>48</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -7979,12 +7978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>48</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D225" s="1">
         <v>2</v>
@@ -7993,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G225" s="1">
         <v>2014</v>
@@ -8005,12 +8004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>48</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -8019,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G226" s="1">
         <v>2014</v>
@@ -8031,12 +8030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>48</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -8045,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G227" s="1">
         <v>2014</v>
@@ -8057,12 +8056,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>48</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -8083,12 +8082,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>48</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -8109,22 +8108,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>48</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D230" s="1">
-        <v>1</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G230" s="1">
         <v>2014</v>
       </c>
@@ -8135,22 +8134,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>48</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D231" s="1">
-        <v>1</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G231" s="1">
         <v>2014</v>
       </c>
@@ -8161,12 +8160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>48</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -8187,12 +8186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>48</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -8213,22 +8212,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D234" s="1">
-        <v>1</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G234" s="1">
         <v>2014</v>
       </c>
@@ -8239,12 +8238,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>48</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D235" s="1">
         <v>2</v>
@@ -8265,12 +8264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>48</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -8291,22 +8290,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>48</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D237" s="1">
-        <v>1</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G237" s="1">
         <v>2014</v>
       </c>
@@ -8317,12 +8316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>48</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -8343,12 +8342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>48</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -8369,12 +8368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>48</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -8395,12 +8394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>48</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -8418,12 +8417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>48</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -8444,12 +8443,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>48</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -8458,7 +8457,7 @@
         <v>19</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G243" s="1">
         <v>2014</v>
@@ -8470,22 +8469,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>48</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D244" s="1">
-        <v>2</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G244" s="1">
         <v>2014</v>
       </c>
@@ -8496,21 +8495,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>48</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D245" s="1">
-        <v>2</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G245" s="1">
         <v>2014</v>
@@ -8522,12 +8521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>48</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -8548,12 +8547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>48</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>133</v>
+        <v>425</v>
       </c>
       <c r="D247" s="1">
         <v>2</v>
@@ -8574,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>48</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>48</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>48</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>48</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>48</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>48</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>48</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>48</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>48</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>48</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>48</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>48</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>48</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>48</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>48</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>48</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>48</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>48</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>48</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>48</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>48</v>
       </c>
@@ -9168,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>48</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>48</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>48</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>48</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>48</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>48</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>48</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>48</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>48</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>48</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>48</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>48</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>48</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>48</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>48</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>48</v>
       </c>
@@ -9884,12 +9883,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>49</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -9898,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G294" s="1">
         <v>2019</v>
@@ -9907,18 +9906,18 @@
         <v>1</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K294" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>49</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>12</v>
@@ -9930,7 +9929,7 @@
         <v>3</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G295" s="1">
         <v>2019</v>
@@ -9945,12 +9944,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>49</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>56</v>
@@ -9959,7 +9958,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G296" s="1">
         <v>2019</v>
@@ -9974,12 +9973,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>49</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>12</v>
@@ -9991,7 +9990,7 @@
         <v>19</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G297" s="1">
         <v>2019</v>
@@ -10006,12 +10005,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>49</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>9</v>
@@ -10023,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G298" s="1">
         <v>2019</v>
@@ -10038,12 +10037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>49</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D299" s="1">
         <v>2</v>
@@ -10052,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G299" s="1">
         <v>2019</v>
@@ -10061,18 +10060,18 @@
         <v>1</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K299" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>49</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>12</v>
@@ -10084,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G300" s="1">
         <v>2019</v>
@@ -10099,12 +10098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>49</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>38</v>
@@ -10131,12 +10130,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>49</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D302" s="1">
         <v>2</v>
@@ -10145,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G302" s="1">
         <v>2019</v>
@@ -10154,18 +10153,18 @@
         <v>1</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K302" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>49</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -10174,7 +10173,7 @@
         <v>3</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G303" s="1">
         <v>2019</v>
@@ -10183,18 +10182,18 @@
         <v>1</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K303" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>49</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>0</v>
@@ -10206,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G304" s="1">
         <v>2019</v>
@@ -10221,12 +10220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>49</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -10238,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G305" s="1">
         <v>2019</v>
@@ -10253,12 +10252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>49</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -10273,18 +10272,18 @@
         <v>1</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K306" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>49</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>24</v>
@@ -10296,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G307" s="1">
         <v>2019</v>
@@ -10311,12 +10310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>49</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -10325,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G308" s="1">
         <v>2019</v>
@@ -10334,18 +10333,18 @@
         <v>1</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K308" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>49</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>38</v>
@@ -10357,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G309" s="1">
         <v>2019</v>
@@ -10372,12 +10371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>49</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -10395,18 +10394,18 @@
         <v>1</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K310" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>49</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D311" s="1">
         <v>2</v>
@@ -10415,7 +10414,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G311" s="1">
         <v>2019</v>
@@ -10424,18 +10423,18 @@
         <v>1</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K311" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>49</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>29</v>
@@ -10462,12 +10461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>49</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>50</v>
@@ -10476,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G313" s="1">
         <v>2019</v>
@@ -10491,12 +10490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>49</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -10523,12 +10522,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>49</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -10555,12 +10554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>49</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>38</v>
@@ -10569,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G316" s="1">
         <v>2019</v>
@@ -10584,12 +10583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>49</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>9</v>
@@ -10598,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G317" s="1">
         <v>2019</v>
@@ -10613,12 +10612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>49</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D318" s="1">
         <v>2</v>
@@ -10627,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G318" s="1">
         <v>2019</v>
@@ -10636,18 +10635,18 @@
         <v>1</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K318" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>49</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -10656,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G319" s="1">
         <v>2019</v>
@@ -10671,12 +10670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>49</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -10703,12 +10702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>49</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>38</v>
@@ -10720,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G321" s="1">
         <v>2019</v>
@@ -10735,12 +10734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>49</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D322" s="1">
         <v>2</v>
@@ -10758,18 +10757,18 @@
         <v>1</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K322" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>49</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>71</v>
@@ -10781,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G323" s="1">
         <v>2019</v>
@@ -10796,12 +10795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>49</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -10813,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G324" s="1">
         <v>2019</v>
@@ -10828,12 +10827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>49</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>69</v>
@@ -10845,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G325" s="1">
         <v>2019</v>
@@ -10860,12 +10859,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>49</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D326" s="1">
         <v>2</v>
@@ -10874,7 +10873,7 @@
         <v>3</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G326" s="1">
         <v>2019</v>
@@ -10883,18 +10882,18 @@
         <v>1</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K326" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>49</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -10903,7 +10902,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G327" s="1">
         <v>2019</v>
@@ -10912,18 +10911,18 @@
         <v>1</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K327" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>49</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -10935,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G328" s="1">
         <v>2019</v>
@@ -10950,12 +10949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>49</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>22</v>
@@ -10967,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G329" s="1">
         <v>2019</v>
@@ -10982,12 +10981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>49</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -10999,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G330" s="1">
         <v>2019</v>
@@ -11014,12 +11013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>49</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -11034,18 +11033,18 @@
         <v>1</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K331" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>49</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -11072,18 +11071,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>49</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G333" s="1">
         <v>2019</v>
@@ -11092,18 +11091,18 @@
         <v>1</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K333" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>49</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>48</v>
@@ -11115,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G334" s="1">
         <v>2019</v>
@@ -11130,12 +11129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>49</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>38</v>
@@ -11147,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G335" s="1">
         <v>2019</v>
@@ -11162,12 +11161,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>49</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>22</v>
@@ -11176,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G336" s="1">
         <v>2019</v>
@@ -11191,12 +11190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>49</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>32</v>
@@ -11208,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G337" s="1">
         <v>2019</v>
@@ -11223,12 +11222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>49</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>56</v>
@@ -11240,7 +11239,7 @@
         <v>19</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G338" s="1">
         <v>2019</v>
@@ -11255,12 +11254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>49</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>12</v>
@@ -11287,12 +11286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>49</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>56</v>
@@ -11304,7 +11303,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G340" s="1">
         <v>2019</v>
@@ -11319,12 +11318,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>49</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>22</v>
@@ -11351,12 +11350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>49</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>50</v>
@@ -11383,12 +11382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>49</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -11415,12 +11414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>49</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -11429,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G344" s="1">
         <v>2019</v>
@@ -11438,18 +11437,18 @@
         <v>1</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K344" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>49</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>36</v>
@@ -11461,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G345" s="1">
         <v>2019</v>
@@ -11476,12 +11475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>49</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -11493,7 +11492,7 @@
         <v>3</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G346" s="1">
         <v>2019</v>
@@ -11508,12 +11507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>49</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -11525,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G347" s="1">
         <v>2019</v>
@@ -11545,7 +11544,7 @@
         <v>49</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -11557,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G348" s="1">
         <v>2019</v>
@@ -11572,12 +11571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>49</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -11589,7 +11588,7 @@
         <v>3</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G349" s="1">
         <v>2019</v>
@@ -11604,12 +11603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>49</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -11621,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G350" s="1">
         <v>2019</v>
@@ -11636,12 +11635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>49</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>12</v>
@@ -11668,12 +11667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>49</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D352" s="1">
         <v>2</v>
@@ -11688,18 +11687,18 @@
         <v>1</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K352" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>49</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>6</v>
@@ -11711,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G353" s="1">
         <v>2019</v>
@@ -11726,12 +11725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>49</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>12</v>
@@ -11758,12 +11757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>49</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D355" s="1">
         <v>2</v>
@@ -11781,18 +11780,18 @@
         <v>1</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K355" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>49</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -11804,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G356" s="1">
         <v>2019</v>
@@ -11819,12 +11818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>49</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>56</v>
@@ -11836,7 +11835,7 @@
         <v>3</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G357" s="1">
         <v>2019</v>
@@ -11851,12 +11850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>49</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>48</v>
@@ -11883,18 +11882,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>49</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D359" s="1">
         <v>2</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G359" s="1">
         <v>2019</v>
@@ -11903,18 +11902,18 @@
         <v>1</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K359" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>49</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -11923,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G360" s="1">
         <v>2019</v>
@@ -11938,12 +11937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>49</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -11955,7 +11954,7 @@
         <v>3</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G361" s="1">
         <v>2019</v>
@@ -11970,12 +11969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>49</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>12</v>
@@ -11987,7 +11986,7 @@
         <v>3</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G362" s="1">
         <v>2019</v>
@@ -12002,12 +12001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>49</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>24</v>
@@ -12019,7 +12018,7 @@
         <v>3</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G363" s="1">
         <v>2019</v>
@@ -12034,18 +12033,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>49</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D364" s="1">
         <v>2</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G364" s="1">
         <v>2019</v>
@@ -12054,18 +12053,18 @@
         <v>1</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K364" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>49</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -12077,7 +12076,7 @@
         <v>3</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G365" s="1">
         <v>2019</v>
@@ -12092,12 +12091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>49</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>6</v>
@@ -12109,7 +12108,7 @@
         <v>3</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G366" s="1">
         <v>2019</v>
@@ -12124,12 +12123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>49</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>0</v>
@@ -12156,12 +12155,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>49</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>40</v>
@@ -12173,7 +12172,7 @@
         <v>3</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G368" s="1">
         <v>2019</v>
@@ -12188,12 +12187,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>49</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>12</v>
@@ -12220,12 +12219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>49</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>50</v>
@@ -12237,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G370" s="1">
         <v>2019</v>
@@ -12252,12 +12251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>49</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>29</v>
@@ -12269,7 +12268,7 @@
         <v>19</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G371" s="1">
         <v>2019</v>
@@ -12284,12 +12283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>49</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -12301,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G372" s="1">
         <v>2019</v>
@@ -12316,12 +12315,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>49</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>133</v>
+        <v>425</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -12339,18 +12338,18 @@
         <v>1</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K373" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>49</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>12</v>
@@ -12362,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G374" s="1">
         <v>2019</v>
@@ -12377,12 +12376,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>49</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -12391,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G375" s="1">
         <v>2019</v>
@@ -12400,18 +12399,18 @@
         <v>1</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K375" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>49</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -12423,7 +12422,7 @@
         <v>3</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G376" s="1">
         <v>2019</v>
@@ -12438,12 +12437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>49</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D377" s="1">
         <v>2</v>
@@ -12452,7 +12451,7 @@
         <v>3</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G377" s="1">
         <v>2019</v>
@@ -12461,18 +12460,18 @@
         <v>1</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K377" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>49</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -12484,7 +12483,7 @@
         <v>3</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G378" s="1">
         <v>2019</v>
@@ -12499,12 +12498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>49</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>29</v>
@@ -12516,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G379" s="1">
         <v>2019</v>
@@ -12531,12 +12530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>49</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -12548,7 +12547,7 @@
         <v>3</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G380" s="1">
         <v>2019</v>
@@ -12563,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>49</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G381" s="1">
         <v>2019</v>
@@ -12595,12 +12594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>49</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -12627,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>49</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>19</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G383" s="1">
         <v>2019</v>
@@ -12659,7 +12658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>49</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G384" s="1">
         <v>2019</v>
@@ -12691,12 +12690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>49</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -12705,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G385" s="1">
         <v>2019</v>
@@ -12714,13 +12713,13 @@
         <v>1</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K385" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>49</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>19</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G386" s="1">
         <v>2019</v>
@@ -12752,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>49</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G387" s="1">
         <v>2019</v>
@@ -12775,13 +12774,13 @@
         <v>1</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K387" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>49</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>1</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G388" s="1">
         <v>2019</v>
@@ -12810,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>49</v>
       </c>
@@ -12842,12 +12841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>49</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -12856,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G390" s="1">
         <v>2019</v>
@@ -12871,12 +12870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>12</v>
@@ -12885,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G391" s="1">
         <v>2019</v>
@@ -12900,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49</v>
       </c>
@@ -12929,12 +12928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>12</v>
@@ -12946,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G393" s="1">
         <v>2019</v>
@@ -12961,12 +12960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>69</v>
@@ -12978,7 +12977,7 @@
         <v>19</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G394" s="1">
         <v>2019</v>
@@ -12993,7 +12992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>19</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G396" s="1">
         <v>2019</v>
@@ -13057,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G397" s="1">
         <v>2019</v>
@@ -13080,18 +13079,18 @@
         <v>1</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K397" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -13103,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G398" s="1">
         <v>2019</v>
@@ -13118,12 +13117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -13135,7 +13134,7 @@
         <v>19</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G399" s="1">
         <v>2019</v>
@@ -13150,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49</v>
       </c>
@@ -13170,18 +13169,18 @@
         <v>1</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K400" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>71</v>
@@ -13193,7 +13192,7 @@
         <v>3</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G401" s="1">
         <v>2019</v>
@@ -13208,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49</v>
       </c>
@@ -13240,12 +13239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>40</v>
@@ -13257,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G403" s="1">
         <v>2019</v>
@@ -13272,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49</v>
       </c>
@@ -13304,12 +13303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D405" s="1">
         <v>2</v>
@@ -13318,7 +13317,7 @@
         <v>19</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G405" s="1">
         <v>2019</v>
@@ -13327,18 +13326,18 @@
         <v>1</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K405" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D406" s="1">
         <v>2</v>
@@ -13347,7 +13346,7 @@
         <v>19</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G406" s="1">
         <v>2019</v>
@@ -13356,18 +13355,18 @@
         <v>1</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K406" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D407" s="1">
         <v>2</v>
@@ -13376,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G407" s="1">
         <v>2019</v>
@@ -13385,18 +13384,18 @@
         <v>1</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K407" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -13408,7 +13407,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G408" s="1">
         <v>2019</v>
@@ -13423,12 +13422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -13437,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G409" s="1">
         <v>2019</v>
@@ -13452,12 +13451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>49</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>12</v>
@@ -13466,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G410" s="1">
         <v>2019</v>
@@ -13481,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>49</v>
       </c>
@@ -13513,12 +13512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>49</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>37</v>
@@ -13545,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>49</v>
       </c>
@@ -13568,18 +13567,18 @@
         <v>1</v>
       </c>
       <c r="J413" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K413" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>49</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -13606,12 +13605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>49</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>37</v>
@@ -13623,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G415" s="1">
         <v>2019</v>
@@ -13638,7 +13637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>49</v>
       </c>
@@ -13670,12 +13669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>49</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -13687,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G417" s="1">
         <v>2019</v>
@@ -13702,12 +13701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>49</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -13716,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G418" s="1">
         <v>2019</v>
@@ -13731,12 +13730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>49</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>12</v>
@@ -13748,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G419" s="1">
         <v>2019</v>
@@ -13763,12 +13762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>49</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>69</v>
@@ -13795,12 +13794,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>49</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -13812,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G421" s="1">
         <v>2019</v>
@@ -13827,12 +13826,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>49</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -13844,7 +13843,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G422" s="1">
         <v>2019</v>
@@ -13859,12 +13858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>48</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -13888,12 +13887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>48</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D424" s="1">
         <v>2</v>
@@ -13914,12 +13913,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>48</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D425" s="1">
         <v>2</v>
@@ -13941,13 +13940,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K425" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Goñi Romero, Rodrigo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K425" xr:uid="{0FF50285-548A-44DD-8F3B-8B2E2256D852}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K422">
     <sortCondition ref="A2:A422"/>
     <sortCondition ref="B2:B422"/>
